--- a/biology/Virologie/Coronavirus_de_Tylonycteris_HKU4/Coronavirus_de_Tylonycteris_HKU4.xlsx
+++ b/biology/Virologie/Coronavirus_de_Tylonycteris_HKU4/Coronavirus_de_Tylonycteris_HKU4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coronavirus de Tylonycteris HKU4 (en anglais Tylonycteris bat coronavirus HKU4 ou  Bat-CoV HKU4)  est une espèce de Bétacoronavirus à ARN monocaténaire de polarité positive, découvert chez 3 % des chauve-souris Tylonycteris pachypus analysées, originaires de Hong Kong, Guizhou ou Guangxi. Cette souche de coronavirus est liée au MERS-CoV qui fut responsable du syndrome respiratoire du Moyen-Orient de 2012[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coronavirus de Tylonycteris HKU4 (en anglais Tylonycteris bat coronavirus HKU4 ou  Bat-CoV HKU4)  est une espèce de Bétacoronavirus à ARN monocaténaire de polarité positive, découvert chez 3 % des chauve-souris Tylonycteris pachypus analysées, originaires de Hong Kong, Guizhou ou Guangxi. Cette souche de coronavirus est liée au MERS-CoV qui fut responsable du syndrome respiratoire du Moyen-Orient de 2012.
 </t>
         </is>
       </c>
